--- a/04-summary/SEM_Results_Bootstrap_Final_Styled.xlsx
+++ b/04-summary/SEM_Results_Bootstrap_Final_Styled.xlsx
@@ -1356,13 +1356,13 @@
         <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.09879958569356677</v>
+        <v>0.1132221747951986</v>
       </c>
       <c r="E2">
-        <v>0.5060749966560804</v>
+        <v>0.4416096059804598</v>
       </c>
       <c r="F2">
-        <v>0.6128040023530099</v>
+        <v>0.6587717316033321</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01785074717539235</v>
+        <v>0.01811341121271423</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0.08003911461537687</v>
+        <v>0.09049961533987792</v>
       </c>
       <c r="E4">
-        <v>0.6246945663960338</v>
+        <v>0.5524885361298925</v>
       </c>
       <c r="F4">
-        <v>0.5321715400038831</v>
+        <v>0.5806136865391403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4348131484044159</v>
+        <v>0.4310793545706529</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.1024268995438673</v>
+        <v>0.1111040979735002</v>
       </c>
       <c r="E6">
-        <v>0.4881530166604123</v>
+        <v>0.4500284049961472</v>
       </c>
       <c r="F6">
-        <v>0.6254414607956389</v>
+        <v>0.6526899591727828</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01321155937181155</v>
+        <v>0.01325654900724824</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02972261572377988</v>
+        <v>0.02906137699402119</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03438804547130497</v>
+        <v>0.03511877075646657</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02826335890260666</v>
+        <v>0.02841573858446066</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03212598189418008</v>
+        <v>0.03218812515528475</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03854765450228557</v>
+        <v>0.03769889847584817</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1557,16 +1557,16 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.4092813012670601</v>
+        <v>0.3747730528509157</v>
       </c>
       <c r="D13">
-        <v>0.6452641445607515</v>
+        <v>0.682692846215222</v>
       </c>
       <c r="E13">
-        <v>0.6342848966837209</v>
+        <v>0.5489629119860704</v>
       </c>
       <c r="F13">
-        <v>0.5258949113251219</v>
+        <v>0.5830309022802742</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1575,13 +1575,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.8284324217201742</v>
+        <v>0.8675525168450242</v>
       </c>
       <c r="D14">
-        <v>0.04375081279288869</v>
+        <v>0.04513280695352057</v>
       </c>
       <c r="E14">
-        <v>18.93524642897362</v>
+        <v>19.22221495594634</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1595,16 +1595,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.3066599183217568</v>
+        <v>0.2542229406221989</v>
       </c>
       <c r="D15">
-        <v>0.4830396033842994</v>
+        <v>0.4648524908123365</v>
       </c>
       <c r="E15">
-        <v>0.6348546085509011</v>
+        <v>0.546889487840312</v>
       </c>
       <c r="F15">
-        <v>0.5255232436938191</v>
+        <v>0.58445465817928</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.4627962742766552</v>
+        <v>0.4077559783326731</v>
       </c>
       <c r="D16">
-        <v>0.02445419831573069</v>
+        <v>0.02117089193809224</v>
       </c>
       <c r="E16">
-        <v>18.92502335519322</v>
+        <v>19.26021725989485</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.397814932458376</v>
+        <v>0.3625140764687408</v>
       </c>
       <c r="D17">
-        <v>0.5928634898560446</v>
+        <v>0.6181771844366608</v>
       </c>
       <c r="E17">
-        <v>0.6710059554422889</v>
+        <v>0.5864242252785665</v>
       </c>
       <c r="F17">
-        <v>0.5022167356370328</v>
+        <v>0.5575904687332871</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1651,13 +1651,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.5225287356321842</v>
+        <v>0.4670920861408376</v>
       </c>
       <c r="D18">
-        <v>0.02925501249166824</v>
+        <v>0.02627918990898175</v>
       </c>
       <c r="E18">
-        <v>17.86116945816168</v>
+        <v>17.7742193629576</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1680,16 +1680,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>0.7570088518958907</v>
+        <v>0.6898507068304929</v>
       </c>
       <c r="D20">
-        <v>0.08685546931764572</v>
+        <v>0.09549793752218512</v>
       </c>
       <c r="E20">
-        <v>8.715730371781891</v>
+        <v>7.223723618774593</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5.058176100192213E-13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,16 +1709,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.7075862068965513</v>
+        <v>0.7019791253798381</v>
       </c>
       <c r="D22">
-        <v>0.1126651312565944</v>
+        <v>0.1215974842935866</v>
       </c>
       <c r="E22">
-        <v>6.28043653789162</v>
+        <v>5.772974082911099</v>
       </c>
       <c r="F22">
-        <v>3.376237067698185E-10</v>
+        <v>7.788442557554731E-09</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.002480349045506893</v>
+        <v>0.002634040918196373</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.6932098031444049</v>
+        <v>0.6666329766151398</v>
       </c>
       <c r="D24">
-        <v>0.03323686608376496</v>
+        <v>0.03196260478469237</v>
       </c>
       <c r="E24">
-        <v>20.8566536139867</v>
+        <v>20.85665361396168</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.002017300396779516</v>
+        <v>0.002021331708020135</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>0.7962617254591096</v>
+        <v>0.7962108600871974</v>
       </c>
       <c r="D26">
-        <v>0.03817782757350732</v>
+        <v>0.0381753887655925</v>
       </c>
       <c r="E26">
-        <v>20.85665361406791</v>
+        <v>20.85665361406787</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.003515369082091516</v>
+        <v>0.003270627613370924</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,13 +1823,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0.5482732197119832</v>
+        <v>0.5763251420266875</v>
       </c>
       <c r="D28">
-        <v>0.02628768880391289</v>
+        <v>0.02763267553251485</v>
       </c>
       <c r="E28">
-        <v>20.85665361382081</v>
+        <v>20.85665361385943</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>0.6847278372308098</v>
+        <v>0.6787032633108745</v>
       </c>
       <c r="D30">
-        <v>0.1033248444637755</v>
+        <v>0.1171171559006999</v>
       </c>
       <c r="E30">
-        <v>6.626942830426812</v>
+        <v>5.795079790705739</v>
       </c>
       <c r="F30">
-        <v>3.427103045794411E-11</v>
+        <v>6.82887058012227E-09</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1872,16 +1872,16 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>0.7264864583262984</v>
+        <v>0.6486552250732648</v>
       </c>
       <c r="D31">
-        <v>1.34821265072353</v>
+        <v>1.391369661320748</v>
       </c>
       <c r="E31">
-        <v>0.5388515364663612</v>
+        <v>0.4661990577378746</v>
       </c>
       <c r="F31">
-        <v>0.5899892997029772</v>
+        <v>0.6410730237534885</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1890,13 +1890,13 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.7433670233848607</v>
+        <v>0.6951142819394903</v>
       </c>
       <c r="D32">
-        <v>0.06280090905892219</v>
+        <v>0.05789273215005777</v>
       </c>
       <c r="E32">
-        <v>11.83688316797403</v>
+        <v>12.00693517323987</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>0.5193938300559267</v>
+        <v>0.4549108885257352</v>
       </c>
       <c r="D33">
-        <v>0.8918875811608329</v>
+        <v>0.9061262373523183</v>
       </c>
       <c r="E33">
-        <v>0.5823534725972181</v>
+        <v>0.5020391969384675</v>
       </c>
       <c r="F33">
-        <v>0.5603286144502271</v>
+        <v>0.6156399491255422</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1928,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>0.5628905022862928</v>
+        <v>0.4707573331699058</v>
       </c>
       <c r="D34">
-        <v>0.8564622486842817</v>
+        <v>0.8277005554271997</v>
       </c>
       <c r="E34">
-        <v>0.6572274529909073</v>
+        <v>0.5687531923019743</v>
       </c>
       <c r="F34">
-        <v>0.5110346758928244</v>
+        <v>0.5695236440450877</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1946,16 +1946,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>0.2735542560103967</v>
+        <v>0.2314671916405688</v>
       </c>
       <c r="D35">
-        <v>0.0390968403984553</v>
+        <v>0.0500661071867599</v>
       </c>
       <c r="E35">
-        <v>6.99683793410088</v>
+        <v>4.62323125647679</v>
       </c>
       <c r="F35">
-        <v>2.618127936671044E-12</v>
+        <v>3.778081204997008E-06</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1964,13 +1964,13 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>0.9340262914519744</v>
+        <v>0.8656262386048359</v>
       </c>
       <c r="D36">
-        <v>0.06087440160385862</v>
+        <v>0.05401852101228212</v>
       </c>
       <c r="E36">
-        <v>15.34349852857405</v>
+        <v>16.02461937808321</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>0.5110346758928244</v>
+        <v>0.5695236440450877</v>
       </c>
       <c r="C2">
-        <v>0.5628905022862928</v>
+        <v>0.4707573331699058</v>
       </c>
       <c r="D2">
-        <v>0.8564622486842817</v>
+        <v>0.8277005554271997</v>
       </c>
       <c r="E2">
-        <v>0.6572274529909073</v>
+        <v>0.5687531923019743</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2049,16 +2049,16 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>2.618127936671044E-12</v>
+        <v>3.778081204997008E-06</v>
       </c>
       <c r="C3">
-        <v>0.2735542560103967</v>
+        <v>0.2314671916405688</v>
       </c>
       <c r="D3">
-        <v>0.0390968403984553</v>
+        <v>0.0500661071867599</v>
       </c>
       <c r="E3">
-        <v>6.99683793410088</v>
+        <v>4.62323125647679</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02826335890260666</v>
+        <v>0.02841573858446066</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>0.5603286144502271</v>
+        <v>0.6156399491255422</v>
       </c>
       <c r="C5">
-        <v>0.5193938300559267</v>
+        <v>0.4549108885257352</v>
       </c>
       <c r="D5">
-        <v>0.8918875811608329</v>
+        <v>0.9061262373523183</v>
       </c>
       <c r="E5">
-        <v>0.5823534725972181</v>
+        <v>0.5020391969384675</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4348131484044159</v>
+        <v>0.4310793545706529</v>
       </c>
       <c r="E6">
         <v>0</v>
